--- a/test.xlsx
+++ b/test.xlsx
@@ -82,10 +82,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -117,6 +117,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C3">
+        <v>3.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
